--- a/app/webroot/files/1/10 - Inyecciones.xlsx
+++ b/app/webroot/files/1/10 - Inyecciones.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\manri\Desktop\Formatos tablas Fosalud\Region Metropolitana\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5331C0-1CE2-4BC4-9EF1-AEC7DCCB5EB8}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49D01946-D634-445A-82B1-3D3AA7440DCA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3390" yWindow="2070" windowWidth="15375" windowHeight="7875" xr2:uid="{FEE53986-C482-44D1-85BF-19005F3BA3BD}"/>
   </bookViews>
@@ -525,8 +525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91324BA2-0CB7-4947-B63F-73BB2457117A}">
   <dimension ref="A1:P23"/>
   <sheetViews>
-    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="D11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4:P23"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" topLeftCell="D3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,42 +592,18 @@
       <c r="D4" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="1">
-        <v>1</v>
-      </c>
-      <c r="F4" s="6">
-        <v>1</v>
-      </c>
-      <c r="G4" s="6">
-        <v>1</v>
-      </c>
-      <c r="H4" s="6">
-        <v>1</v>
-      </c>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1</v>
-      </c>
-      <c r="K4" s="6">
-        <v>1</v>
-      </c>
-      <c r="L4" s="6">
-        <v>1</v>
-      </c>
-      <c r="M4" s="6">
-        <v>1</v>
-      </c>
-      <c r="N4" s="6">
-        <v>1</v>
-      </c>
-      <c r="O4" s="6">
-        <v>1</v>
-      </c>
-      <c r="P4" s="6">
-        <v>1</v>
-      </c>
+      <c r="E4" s="1"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="3"/>
@@ -638,42 +614,18 @@
       <c r="D5" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="6">
-        <v>1</v>
-      </c>
-      <c r="F5" s="6">
-        <v>1</v>
-      </c>
-      <c r="G5" s="6">
-        <v>1</v>
-      </c>
-      <c r="H5" s="6">
-        <v>1</v>
-      </c>
-      <c r="I5" s="6">
-        <v>1</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1</v>
-      </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>1</v>
-      </c>
-      <c r="M5" s="6">
-        <v>1</v>
-      </c>
-      <c r="N5" s="6">
-        <v>1</v>
-      </c>
-      <c r="O5" s="6">
-        <v>1</v>
-      </c>
-      <c r="P5" s="6">
-        <v>1</v>
-      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+      <c r="J5" s="6"/>
+      <c r="K5" s="6"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>
@@ -684,42 +636,18 @@
       <c r="D6" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6">
-        <v>1</v>
-      </c>
-      <c r="F6" s="6">
-        <v>1</v>
-      </c>
-      <c r="G6" s="6">
-        <v>1</v>
-      </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
-        <v>1</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1</v>
-      </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>1</v>
-      </c>
-      <c r="M6" s="6">
-        <v>1</v>
-      </c>
-      <c r="N6" s="6">
-        <v>1</v>
-      </c>
-      <c r="O6" s="6">
-        <v>1</v>
-      </c>
-      <c r="P6" s="6">
-        <v>1</v>
-      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="3"/>
@@ -730,42 +658,18 @@
       <c r="D7" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="6">
-        <v>1</v>
-      </c>
-      <c r="F7" s="6">
-        <v>1</v>
-      </c>
-      <c r="G7" s="6">
-        <v>1</v>
-      </c>
-      <c r="H7" s="6">
-        <v>1</v>
-      </c>
-      <c r="I7" s="6">
-        <v>1</v>
-      </c>
-      <c r="J7" s="6">
-        <v>1</v>
-      </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>1</v>
-      </c>
-      <c r="M7" s="6">
-        <v>1</v>
-      </c>
-      <c r="N7" s="6">
-        <v>1</v>
-      </c>
-      <c r="O7" s="6">
-        <v>1</v>
-      </c>
-      <c r="P7" s="6">
-        <v>1</v>
-      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
@@ -776,42 +680,18 @@
       <c r="D8" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="E8" s="6">
-        <v>1</v>
-      </c>
-      <c r="F8" s="6">
-        <v>1</v>
-      </c>
-      <c r="G8" s="6">
-        <v>1</v>
-      </c>
-      <c r="H8" s="6">
-        <v>1</v>
-      </c>
-      <c r="I8" s="6">
-        <v>1</v>
-      </c>
-      <c r="J8" s="6">
-        <v>1</v>
-      </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>1</v>
-      </c>
-      <c r="M8" s="6">
-        <v>1</v>
-      </c>
-      <c r="N8" s="6">
-        <v>1</v>
-      </c>
-      <c r="O8" s="6">
-        <v>1</v>
-      </c>
-      <c r="P8" s="6">
-        <v>1</v>
-      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="3"/>
@@ -822,42 +702,18 @@
       <c r="D9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E9" s="6">
-        <v>1</v>
-      </c>
-      <c r="F9" s="6">
-        <v>1</v>
-      </c>
-      <c r="G9" s="6">
-        <v>1</v>
-      </c>
-      <c r="H9" s="6">
-        <v>1</v>
-      </c>
-      <c r="I9" s="6">
-        <v>1</v>
-      </c>
-      <c r="J9" s="6">
-        <v>1</v>
-      </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>1</v>
-      </c>
-      <c r="M9" s="6">
-        <v>1</v>
-      </c>
-      <c r="N9" s="6">
-        <v>1</v>
-      </c>
-      <c r="O9" s="6">
-        <v>1</v>
-      </c>
-      <c r="P9" s="6">
-        <v>1</v>
-      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="3"/>
@@ -868,42 +724,18 @@
       <c r="D10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="6">
-        <v>1</v>
-      </c>
-      <c r="F10" s="6">
-        <v>1</v>
-      </c>
-      <c r="G10" s="6">
-        <v>1</v>
-      </c>
-      <c r="H10" s="6">
-        <v>1</v>
-      </c>
-      <c r="I10" s="6">
-        <v>1</v>
-      </c>
-      <c r="J10" s="6">
-        <v>1</v>
-      </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>1</v>
-      </c>
-      <c r="M10" s="6">
-        <v>1</v>
-      </c>
-      <c r="N10" s="6">
-        <v>1</v>
-      </c>
-      <c r="O10" s="6">
-        <v>1</v>
-      </c>
-      <c r="P10" s="6">
-        <v>1</v>
-      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="3"/>
@@ -914,42 +746,18 @@
       <c r="D11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="E11" s="6">
-        <v>1</v>
-      </c>
-      <c r="F11" s="6">
-        <v>1</v>
-      </c>
-      <c r="G11" s="6">
-        <v>1</v>
-      </c>
-      <c r="H11" s="6">
-        <v>1</v>
-      </c>
-      <c r="I11" s="6">
-        <v>1</v>
-      </c>
-      <c r="J11" s="6">
-        <v>1</v>
-      </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>1</v>
-      </c>
-      <c r="M11" s="6">
-        <v>1</v>
-      </c>
-      <c r="N11" s="6">
-        <v>1</v>
-      </c>
-      <c r="O11" s="6">
-        <v>1</v>
-      </c>
-      <c r="P11" s="6">
-        <v>1</v>
-      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6"/>
+      <c r="M11" s="6"/>
+      <c r="N11" s="6"/>
+      <c r="O11" s="6"/>
+      <c r="P11" s="6"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="3"/>
@@ -960,42 +768,18 @@
       <c r="D12" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="6">
-        <v>1</v>
-      </c>
-      <c r="F12" s="6">
-        <v>1</v>
-      </c>
-      <c r="G12" s="6">
-        <v>1</v>
-      </c>
-      <c r="H12" s="6">
-        <v>1</v>
-      </c>
-      <c r="I12" s="6">
-        <v>1</v>
-      </c>
-      <c r="J12" s="6">
-        <v>1</v>
-      </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
-        <v>1</v>
-      </c>
-      <c r="M12" s="6">
-        <v>1</v>
-      </c>
-      <c r="N12" s="6">
-        <v>1</v>
-      </c>
-      <c r="O12" s="6">
-        <v>1</v>
-      </c>
-      <c r="P12" s="6">
-        <v>1</v>
-      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6"/>
+      <c r="M12" s="6"/>
+      <c r="N12" s="6"/>
+      <c r="O12" s="6"/>
+      <c r="P12" s="6"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1006,42 +790,18 @@
       <c r="D13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="6">
-        <v>1</v>
-      </c>
-      <c r="F13" s="6">
-        <v>1</v>
-      </c>
-      <c r="G13" s="6">
-        <v>1</v>
-      </c>
-      <c r="H13" s="6">
-        <v>1</v>
-      </c>
-      <c r="I13" s="6">
-        <v>1</v>
-      </c>
-      <c r="J13" s="6">
-        <v>1</v>
-      </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>1</v>
-      </c>
-      <c r="M13" s="6">
-        <v>1</v>
-      </c>
-      <c r="N13" s="6">
-        <v>1</v>
-      </c>
-      <c r="O13" s="6">
-        <v>1</v>
-      </c>
-      <c r="P13" s="6">
-        <v>1</v>
-      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6"/>
+      <c r="M13" s="6"/>
+      <c r="N13" s="6"/>
+      <c r="O13" s="6"/>
+      <c r="P13" s="6"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
@@ -1052,42 +812,18 @@
       <c r="D14" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="6">
-        <v>1</v>
-      </c>
-      <c r="F14" s="6">
-        <v>1</v>
-      </c>
-      <c r="G14" s="6">
-        <v>1</v>
-      </c>
-      <c r="H14" s="6">
-        <v>1</v>
-      </c>
-      <c r="I14" s="6">
-        <v>1</v>
-      </c>
-      <c r="J14" s="6">
-        <v>1</v>
-      </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>1</v>
-      </c>
-      <c r="M14" s="6">
-        <v>1</v>
-      </c>
-      <c r="N14" s="6">
-        <v>1</v>
-      </c>
-      <c r="O14" s="6">
-        <v>1</v>
-      </c>
-      <c r="P14" s="6">
-        <v>1</v>
-      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6"/>
+      <c r="M14" s="6"/>
+      <c r="N14" s="6"/>
+      <c r="O14" s="6"/>
+      <c r="P14" s="6"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
@@ -1098,42 +834,18 @@
       <c r="D15" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="E15" s="6">
-        <v>1</v>
-      </c>
-      <c r="F15" s="6">
-        <v>1</v>
-      </c>
-      <c r="G15" s="6">
-        <v>1</v>
-      </c>
-      <c r="H15" s="6">
-        <v>1</v>
-      </c>
-      <c r="I15" s="6">
-        <v>1</v>
-      </c>
-      <c r="J15" s="6">
-        <v>1</v>
-      </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
-        <v>1</v>
-      </c>
-      <c r="M15" s="6">
-        <v>1</v>
-      </c>
-      <c r="N15" s="6">
-        <v>1</v>
-      </c>
-      <c r="O15" s="6">
-        <v>1</v>
-      </c>
-      <c r="P15" s="6">
-        <v>1</v>
-      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
@@ -1144,42 +856,18 @@
       <c r="D16" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="6">
-        <v>1</v>
-      </c>
-      <c r="F16" s="6">
-        <v>1</v>
-      </c>
-      <c r="G16" s="6">
-        <v>1</v>
-      </c>
-      <c r="H16" s="6">
-        <v>1</v>
-      </c>
-      <c r="I16" s="6">
-        <v>1</v>
-      </c>
-      <c r="J16" s="6">
-        <v>1</v>
-      </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>1</v>
-      </c>
-      <c r="M16" s="6">
-        <v>1</v>
-      </c>
-      <c r="N16" s="6">
-        <v>1</v>
-      </c>
-      <c r="O16" s="6">
-        <v>1</v>
-      </c>
-      <c r="P16" s="6">
-        <v>1</v>
-      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6"/>
+      <c r="M16" s="6"/>
+      <c r="N16" s="6"/>
+      <c r="O16" s="6"/>
+      <c r="P16" s="6"/>
     </row>
     <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
@@ -1190,42 +878,18 @@
       <c r="D17" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="6">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6">
-        <v>1</v>
-      </c>
-      <c r="G17" s="6">
-        <v>1</v>
-      </c>
-      <c r="H17" s="6">
-        <v>1</v>
-      </c>
-      <c r="I17" s="6">
-        <v>1</v>
-      </c>
-      <c r="J17" s="6">
-        <v>1</v>
-      </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>1</v>
-      </c>
-      <c r="M17" s="6">
-        <v>1</v>
-      </c>
-      <c r="N17" s="6">
-        <v>1</v>
-      </c>
-      <c r="O17" s="6">
-        <v>1</v>
-      </c>
-      <c r="P17" s="6">
-        <v>1</v>
-      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6"/>
+      <c r="M17" s="6"/>
+      <c r="N17" s="6"/>
+      <c r="O17" s="6"/>
+      <c r="P17" s="6"/>
     </row>
     <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
@@ -1236,42 +900,18 @@
       <c r="D18" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="E18" s="6">
-        <v>1</v>
-      </c>
-      <c r="F18" s="6">
-        <v>1</v>
-      </c>
-      <c r="G18" s="6">
-        <v>1</v>
-      </c>
-      <c r="H18" s="6">
-        <v>1</v>
-      </c>
-      <c r="I18" s="6">
-        <v>1</v>
-      </c>
-      <c r="J18" s="6">
-        <v>1</v>
-      </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>1</v>
-      </c>
-      <c r="M18" s="6">
-        <v>1</v>
-      </c>
-      <c r="N18" s="6">
-        <v>1</v>
-      </c>
-      <c r="O18" s="6">
-        <v>1</v>
-      </c>
-      <c r="P18" s="6">
-        <v>1</v>
-      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="6"/>
+      <c r="K18" s="6"/>
+      <c r="L18" s="6"/>
+      <c r="M18" s="6"/>
+      <c r="N18" s="6"/>
+      <c r="O18" s="6"/>
+      <c r="P18" s="6"/>
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -1282,42 +922,18 @@
       <c r="D19" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="E19" s="6">
-        <v>1</v>
-      </c>
-      <c r="F19" s="6">
-        <v>1</v>
-      </c>
-      <c r="G19" s="6">
-        <v>1</v>
-      </c>
-      <c r="H19" s="6">
-        <v>1</v>
-      </c>
-      <c r="I19" s="6">
-        <v>1</v>
-      </c>
-      <c r="J19" s="6">
-        <v>1</v>
-      </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>1</v>
-      </c>
-      <c r="M19" s="6">
-        <v>1</v>
-      </c>
-      <c r="N19" s="6">
-        <v>1</v>
-      </c>
-      <c r="O19" s="6">
-        <v>1</v>
-      </c>
-      <c r="P19" s="6">
-        <v>1</v>
-      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="H19" s="6"/>
+      <c r="I19" s="6"/>
+      <c r="J19" s="6"/>
+      <c r="K19" s="6"/>
+      <c r="L19" s="6"/>
+      <c r="M19" s="6"/>
+      <c r="N19" s="6"/>
+      <c r="O19" s="6"/>
+      <c r="P19" s="6"/>
     </row>
     <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
@@ -1328,42 +944,18 @@
       <c r="D20" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="6">
-        <v>1</v>
-      </c>
-      <c r="F20" s="6">
-        <v>1</v>
-      </c>
-      <c r="G20" s="6">
-        <v>1</v>
-      </c>
-      <c r="H20" s="6">
-        <v>1</v>
-      </c>
-      <c r="I20" s="6">
-        <v>1</v>
-      </c>
-      <c r="J20" s="6">
-        <v>1</v>
-      </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>1</v>
-      </c>
-      <c r="M20" s="6">
-        <v>1</v>
-      </c>
-      <c r="N20" s="6">
-        <v>1</v>
-      </c>
-      <c r="O20" s="6">
-        <v>1</v>
-      </c>
-      <c r="P20" s="6">
-        <v>1</v>
-      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+      <c r="G20" s="6"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="6"/>
+      <c r="N20" s="6"/>
+      <c r="O20" s="6"/>
+      <c r="P20" s="6"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
@@ -1374,42 +966,18 @@
       <c r="D21" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="6">
-        <v>1</v>
-      </c>
-      <c r="F21" s="6">
-        <v>1</v>
-      </c>
-      <c r="G21" s="6">
-        <v>1</v>
-      </c>
-      <c r="H21" s="6">
-        <v>1</v>
-      </c>
-      <c r="I21" s="6">
-        <v>1</v>
-      </c>
-      <c r="J21" s="6">
-        <v>1</v>
-      </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>1</v>
-      </c>
-      <c r="M21" s="6">
-        <v>1</v>
-      </c>
-      <c r="N21" s="6">
-        <v>1</v>
-      </c>
-      <c r="O21" s="6">
-        <v>1</v>
-      </c>
-      <c r="P21" s="6">
-        <v>1</v>
-      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="6"/>
+      <c r="H21" s="6"/>
+      <c r="I21" s="6"/>
+      <c r="J21" s="6"/>
+      <c r="K21" s="6"/>
+      <c r="L21" s="6"/>
+      <c r="M21" s="6"/>
+      <c r="N21" s="6"/>
+      <c r="O21" s="6"/>
+      <c r="P21" s="6"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
@@ -1420,42 +988,18 @@
       <c r="D22" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="E22" s="6">
-        <v>1</v>
-      </c>
-      <c r="F22" s="6">
-        <v>1</v>
-      </c>
-      <c r="G22" s="6">
-        <v>1</v>
-      </c>
-      <c r="H22" s="6">
-        <v>1</v>
-      </c>
-      <c r="I22" s="6">
-        <v>1</v>
-      </c>
-      <c r="J22" s="6">
-        <v>1</v>
-      </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>1</v>
-      </c>
-      <c r="M22" s="6">
-        <v>1</v>
-      </c>
-      <c r="N22" s="6">
-        <v>1</v>
-      </c>
-      <c r="O22" s="6">
-        <v>1</v>
-      </c>
-      <c r="P22" s="6">
-        <v>1</v>
-      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="6"/>
+      <c r="I22" s="6"/>
+      <c r="J22" s="6"/>
+      <c r="K22" s="6"/>
+      <c r="L22" s="6"/>
+      <c r="M22" s="6"/>
+      <c r="N22" s="6"/>
+      <c r="O22" s="6"/>
+      <c r="P22" s="6"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -1466,42 +1010,18 @@
       <c r="D23" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="E23" s="6">
-        <v>1</v>
-      </c>
-      <c r="F23" s="6">
-        <v>1</v>
-      </c>
-      <c r="G23" s="6">
-        <v>1</v>
-      </c>
-      <c r="H23" s="6">
-        <v>1</v>
-      </c>
-      <c r="I23" s="6">
-        <v>1</v>
-      </c>
-      <c r="J23" s="6">
-        <v>1</v>
-      </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>1</v>
-      </c>
-      <c r="M23" s="6">
-        <v>1</v>
-      </c>
-      <c r="N23" s="6">
-        <v>1</v>
-      </c>
-      <c r="O23" s="6">
-        <v>1</v>
-      </c>
-      <c r="P23" s="6">
-        <v>1</v>
-      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="6"/>
+      <c r="J23" s="6"/>
+      <c r="K23" s="6"/>
+      <c r="L23" s="6"/>
+      <c r="M23" s="6"/>
+      <c r="N23" s="6"/>
+      <c r="O23" s="6"/>
+      <c r="P23" s="6"/>
     </row>
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="U23/CbjI8TSX/htHUa15Xx4h2jjlJHEdiLscWi8sV7jVvu/clCkGzssWqXtSVGuizL95fbhcJIrNSP3G1dw1nA==" saltValue="TLROdBahPJH4oqijXKajXA==" spinCount="100000" sheet="1" insertColumns="0" insertRows="0" deleteColumns="0" deleteRows="0" sort="0"/>
